--- a/visual_servoing/image_process/resource/data/HM_VS_data_3D.xlsx
+++ b/visual_servoing/image_process/resource/data/HM_VS_data_3D.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2022_11_18_17_30_07_HM_VS_data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2022_11_20_17_01_31_HM_VS_data" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">camera velocity</t>
   </si>
   <si>
     <t xml:space="preserve">camera pose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camera desired pose</t>
   </si>
   <si>
     <t xml:space="preserve">error feature</t>
@@ -142,7 +145,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -150,12 +153,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.07"/>
   </cols>
   <sheetData>
@@ -166,102 +169,102 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>-0.0914242</v>
+        <v>0.186076</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-0.081815</v>
+        <v>-0.0014478</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.415553</v>
+        <v>-0.42477</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.00380859</v>
+        <v>0.00450337</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.0019861</v>
+        <v>-0.011775</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>-0.0160702</v>
+        <v>0.0010272</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>-0.0914242</v>
+        <v>0.186076</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-0.081815</v>
+        <v>-0.0014478</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.415553</v>
+        <v>-0.42477</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.00380859</v>
+        <v>0.00450337</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.0019861</v>
+        <v>-0.011775</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>-0.0160702</v>
+        <v>0.0010272</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>-0.0914242</v>
+        <v>0.186076</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-0.081815</v>
+        <v>-0.0014478</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.415553</v>
+        <v>-0.42477</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.00380859</v>
+        <v>0.00450337</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.0019861</v>
+        <v>-0.011775</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-0.0160702</v>
+        <v>0.0010272</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>-0.0914242</v>
+        <v>0.186076</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-0.081815</v>
+        <v>-0.0014478</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.415553</v>
+        <v>-0.42477</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.00380859</v>
+        <v>0.00450337</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.0019861</v>
+        <v>-0.011775</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>-0.0160702</v>
+        <v>0.0010272</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>-0.0914242</v>
+        <v>0.186076</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-0.081815</v>
+        <v>-0.0014478</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.415553</v>
+        <v>-0.42477</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.00380859</v>
+        <v>0.00450337</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.0019861</v>
+        <v>-0.011775</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>-0.0160702</v>
+        <v>0.0010272</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,72 +394,90 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>54.6498</v>
+        <v>1</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>54.6498</v>
+      <c r="A15" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>54.6498</v>
+        <v>844.619</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>54.6498</v>
+        <v>844.619</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>54.6498</v>
+        <v>844.619</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>3</v>
+      <c r="A19" s="0" t="n">
+        <v>844.619</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>0.110586</v>
+        <v>844.619</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>0.110586</v>
+      <c r="A21" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>0.110586</v>
+        <v>0.108969</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>0.110586</v>
+        <v>0.108969</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>0.110586</v>
+        <v>0.108969</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>4</v>
+      <c r="A25" s="0" t="n">
+        <v>0.108969</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>4</v>
+        <v>0.108969</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>4</v>
+      <c r="A27" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,68 +496,68 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>5</v>
+      <c r="A31" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>13</v>
+      <c r="A33" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>6</v>
+      <c r="A37" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>15</v>
+      <c r="A39" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>7</v>
+      <c r="A43" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,53 +566,63 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>6</v>
+      <c r="A45" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>6</v>
+      <c r="A51" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
